--- a/HarrisWolpertandPursuit/Types_of_sequences(2).xlsx
+++ b/HarrisWolpertandPursuit/Types_of_sequences(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,25 +46,25 @@
     <t xml:space="preserve">Essai2=</t>
   </si>
   <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Essai3=</t>
   </si>
   <si>
+    <t xml:space="preserve">Essai4=</t>
+  </si>
+  <si>
     <t xml:space="preserve">RR</t>
   </si>
   <si>
-    <t xml:space="preserve">Essai4=</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essai5=</t>
   </si>
   <si>
-    <t xml:space="preserve">LR</t>
+    <t xml:space="preserve">LL</t>
   </si>
   <si>
     <t xml:space="preserve">Essai6=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LL</t>
   </si>
   <si>
     <t xml:space="preserve">Essai7=</t>
@@ -354,18 +354,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:171"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.55"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.6194331983806"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="12.5344129554656"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -481,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -503,13 +503,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -531,13 +531,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
@@ -985,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -1209,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -1349,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
@@ -1612,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -1911,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -2003,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
@@ -2049,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
@@ -2072,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2210,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -2233,7 +2233,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2325,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -2417,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
@@ -2455,6 +2455,7 @@
         <v>6</v>
       </c>
     </row>
+    <row r="86" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>51</v>
@@ -2475,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
@@ -2498,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
@@ -2515,13 +2516,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -2561,7 +2562,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
@@ -2584,13 +2585,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
@@ -2613,7 +2614,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
@@ -2682,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
@@ -2705,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
@@ -2728,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
@@ -2751,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
@@ -2797,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
@@ -2820,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
@@ -2843,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
@@ -2866,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
@@ -2889,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
@@ -2912,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
@@ -2935,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
@@ -2958,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
@@ -3004,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
@@ -3050,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
@@ -3073,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
@@ -3119,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
@@ -3142,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
@@ -3165,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
@@ -3188,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
@@ -3234,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
@@ -3257,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
@@ -3280,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
@@ -3303,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
@@ -3326,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
@@ -3349,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
@@ -3372,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
@@ -3387,7 +3388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" s="2" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>53</v>
@@ -3408,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>3</v>
@@ -3431,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>3</v>
@@ -3448,13 +3449,13 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>3</v>
@@ -3477,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>3</v>
@@ -3494,13 +3495,13 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>3</v>
@@ -3517,13 +3518,13 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>3</v>
@@ -3546,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>3</v>
@@ -3569,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
@@ -3592,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
@@ -3615,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
@@ -3638,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
@@ -3661,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
@@ -3684,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
@@ -3707,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
@@ -3730,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
@@ -3753,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>3</v>
@@ -3776,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>3</v>
@@ -3799,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>3</v>
@@ -3822,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>3</v>
@@ -3845,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>3</v>
@@ -4098,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>3</v>
@@ -4121,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>3</v>
@@ -4144,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>3</v>
@@ -4167,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>3</v>
@@ -4190,7 +4191,7 @@
         <v>3</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>3</v>
@@ -4213,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>3</v>
@@ -4236,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>3</v>
@@ -4259,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
@@ -4282,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>3</v>
@@ -4305,7 +4306,7 @@
         <v>3</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>3</v>
@@ -4320,7 +4321,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A43:E43"/>
